--- a/Labs/Office/Excel/resources/пример 20_1.xlsx
+++ b/Labs/Office/Excel/resources/пример 20_1.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9114"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24430"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asp1r\Documents\asp1rant3\GitHub Repositories\BasicsOfAlgorithmizationAndProgramming\Labs\Office\Excel\resources\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{291BFDF9-0756-45E7-BD44-25F731A1D695}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="30" windowWidth="15255" windowHeight="8160"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="6" r:id="rId1"/>
@@ -14,12 +20,66 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
+    <author>Aleksandr Zenevich</author>
     <author>Spiridonov</author>
   </authors>
   <commentList>
-    <comment ref="E2" authorId="0">
+    <comment ref="A2" authorId="0" shapeId="0" xr:uid="{F42EE3E7-5AE0-406C-8EEA-1694CC022C8B}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Aleksandr Zenevich:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">
+Уточнить номер накладной
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D2" authorId="0" shapeId="0" xr:uid="{F0FC48E7-326E-44A7-9843-980997C5B88E}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Aleksandr Zenevich:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">
+Перезаключить договор</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -27,6 +87,7 @@
             <sz val="8"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
             <charset val="204"/>
           </rPr>
           <t>Spiridonov:</t>
@@ -36,14 +97,16 @@
             <sz val="8"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
             <charset val="204"/>
           </rPr>
           <t xml:space="preserve">
-Февраль - отпуск.</t>
+Февраль - отпуск. С 5-го февраля
+</t>
         </r>
       </text>
     </comment>
-    <comment ref="B3" authorId="0">
+    <comment ref="C5" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
       <text>
         <r>
           <rPr>
@@ -51,6 +114,7 @@
             <sz val="8"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
             <charset val="204"/>
           </rPr>
           <t>Spiridonov:</t>
@@ -60,14 +124,41 @@
             <sz val="8"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
             <charset val="204"/>
           </rPr>
           <t xml:space="preserve">
-Сократить объем</t>
+Перенести на январь</t>
         </r>
       </text>
     </comment>
-    <comment ref="C5" authorId="0">
+    <comment ref="C11" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color indexed="18"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Spiridonov:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="18"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">
+Перенести поставку на 22.01.2010</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C18" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
       <text>
         <r>
           <rPr>
@@ -75,6 +166,7 @@
             <sz val="8"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
             <charset val="204"/>
           </rPr>
           <t>Spiridonov:</t>
@@ -84,6 +176,7 @@
             <sz val="8"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
             <charset val="204"/>
           </rPr>
           <t xml:space="preserve">
@@ -91,33 +184,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C11" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color indexed="18"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="204"/>
-          </rPr>
-          <t>Spiridonov:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color indexed="18"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="204"/>
-          </rPr>
-          <t xml:space="preserve">
-Перенести поставку на 22.01.2010</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C18" authorId="0">
+    <comment ref="C19" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000006000000}">
       <text>
         <r>
           <rPr>
@@ -125,6 +192,7 @@
             <sz val="8"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
             <charset val="204"/>
           </rPr>
           <t>Spiridonov:</t>
@@ -134,30 +202,7 @@
             <sz val="8"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="204"/>
-          </rPr>
-          <t xml:space="preserve">
-Перенести на январь</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C19" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="204"/>
-          </rPr>
-          <t>Spiridonov:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
+            <family val="2"/>
             <charset val="204"/>
           </rPr>
           <t xml:space="preserve">
@@ -238,11 +283,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="44" formatCode="_-* #,##0.00&quot;р.&quot;_-;\-* #,##0.00&quot;р.&quot;_-;_-* &quot;-&quot;??&quot;р.&quot;_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0.00&quot;р.&quot;_-;\-* #,##0.00&quot;р.&quot;_-;_-* &quot;-&quot;??&quot;р.&quot;_-;_-@_-"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -262,12 +307,14 @@
       <sz val="8"/>
       <color indexed="81"/>
       <name val="Tahoma"/>
+      <family val="2"/>
       <charset val="204"/>
     </font>
     <font>
       <sz val="8"/>
       <color indexed="81"/>
       <name val="Tahoma"/>
+      <family val="2"/>
       <charset val="204"/>
     </font>
     <font>
@@ -300,6 +347,21 @@
       <family val="1"/>
       <charset val="204"/>
       <scheme val="major"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
   </fonts>
   <fills count="3">
@@ -374,7 +436,7 @@
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -385,15 +447,18 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Денежный 2" xfId="2"/>
+    <cellStyle name="Денежный 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
-    <cellStyle name="Обычный 2" xfId="1"/>
+    <cellStyle name="Обычный 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -410,39 +475,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="1F497D" mc:Ignorable=""/>
+        <a:srgbClr val="1F497D"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="EEECE1" mc:Ignorable=""/>
+        <a:srgbClr val="EEECE1"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="4F81BD" mc:Ignorable=""/>
+        <a:srgbClr val="4F81BD"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="C0504D" mc:Ignorable=""/>
+        <a:srgbClr val="C0504D"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="9BBB59" mc:Ignorable=""/>
+        <a:srgbClr val="9BBB59"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="8064A2" mc:Ignorable=""/>
+        <a:srgbClr val="8064A2"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="4BACC6" mc:Ignorable=""/>
+        <a:srgbClr val="4BACC6"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="F79646" mc:Ignorable=""/>
+        <a:srgbClr val="F79646"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0000FF" mc:Ignorable=""/>
+        <a:srgbClr val="0000FF"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="800080" mc:Ignorable=""/>
+        <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -475,9 +540,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -510,6 +592,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -591,7 +690,7 @@
         <a:effectStyle>
           <a:effectLst>
             <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
-              <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="">
+              <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
             </a:outerShdw>
@@ -600,7 +699,7 @@
         <a:effectStyle>
           <a:effectLst>
             <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="">
+              <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
@@ -609,7 +708,7 @@
         <a:effectStyle>
           <a:effectLst>
             <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="">
+              <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
@@ -685,10 +784,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G20" activeCellId="1" sqref="B3 G20"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -723,7 +824,7 @@
         <v>40201</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>7</v>
